--- a/RFID.xlsx
+++ b/RFID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Ref</t>
   </si>
@@ -24,9 +24,6 @@
     <t>125Khz RFID module - UART</t>
   </si>
   <si>
-    <t>https://www.seeedstudio.com/125Khz-RFID-modul</t>
-  </si>
-  <si>
     <t>distance effective (cm)</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
     <t>prix</t>
   </si>
   <si>
-    <t>12,5$</t>
-  </si>
-  <si>
     <t>temps de décodage</t>
   </si>
   <si>
@@ -51,13 +45,134 @@
     <t>125k</t>
   </si>
   <si>
-    <t>interface uart ttl</t>
+    <t>RFID RC522 à 13.56MHz</t>
+  </si>
+  <si>
+    <t>13,56M</t>
+  </si>
+  <si>
+    <t>Click NFC Tag 2 MikroElektronika</t>
+  </si>
+  <si>
+    <t>I²C</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/kits-et-cartes-compatibles-arduino/1360855?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Raspberry_Pi_%26_Arduino_%26_Outils_de_d%C3%A9veloppement_Whoop-_-(FR:Whoop!)+Kits+et+cartes+compatibles+Arduino-_-1360855&amp;matchtype=&amp;aud-827186183686:pla-493204493752&amp;gclid=CjwKCAjwo8-SBhAlEiwAopc9W3rko9chneqEUFivSkILq7tZX10YPpmCMmwalplUOsf8MvcG5doy-xoC6bkQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>57,15 x 25,4 mm</t>
+  </si>
+  <si>
+    <t>12,5 $</t>
+  </si>
+  <si>
+    <t>60mm × 39mm</t>
+  </si>
+  <si>
+    <t>&gt;10µs</t>
+  </si>
+  <si>
+    <t>&gt;0,1µs</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-module-rfid-13-56-mhz-tag-rc522-25651.htm</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/125Khz-RFID-module-UART.html</t>
+  </si>
+  <si>
+    <t>alim (V)</t>
+  </si>
+  <si>
+    <t>Lecteur RFID Grove 125 kHz 113020002</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-lecteur-rfid-grove-125-khz-113020002-19038.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uart Wiegand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I²C</t>
+  </si>
+  <si>
+    <t>uart Wiegand</t>
+  </si>
+  <si>
+    <t>carte : 40 x 20 x 15 mm
+capteur: 43 x 33 x 3 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carte : 38.5mm×19mm×9mm
+capteur : </t>
+  </si>
+  <si>
+    <t>9600 baudrate (1ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lecteur RFID 125 Khz Grove</t>
+  </si>
+  <si>
+    <t>https://www.generationrobots.com/fr/401908-lecteur-rfid-125-khz-grove.html</t>
+  </si>
+  <si>
+    <t>durée de livraison</t>
+  </si>
+  <si>
+    <t>très rapide</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/modules-de-developpement-de-communication-et-sans-fil/8624847</t>
+  </si>
+  <si>
+    <t>Module de développement de communication et sans fil MikroElektronika NFC Tag Click NFC</t>
+  </si>
+  <si>
+    <t>3 jours</t>
+  </si>
+  <si>
+    <t>compatibilité</t>
+  </si>
+  <si>
+    <t>NFC Forum type 4
+ ISO/CEI/CEI14443 type A</t>
+  </si>
+  <si>
+    <t>que pour les cartes? Uem4100</t>
+  </si>
+  <si>
+    <t>uem4100</t>
+  </si>
+  <si>
+    <t>NFC Forum Type 2</t>
+  </si>
+  <si>
+    <t>RFID de type Mifare</t>
+  </si>
+  <si>
+    <t>Support EM4100</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005003990861058.html?gatewayAdapt=glo2fra&amp;spm=a2g0o.ppclist.product.2.7678stWlstWl1q&amp;_t=pvid:5457e2fd-0df0-4046-8111-f15b5d0a13a3&amp;afTraceInfo=1005003990861058__-911__pcBridgePPC__lhGXdja__1649752000939</t>
+  </si>
+  <si>
+    <t>10/50/100pcs Ntag213 Étiquettes NFC 13.56MHz ISO14443A Autocollant NFC Ntag 213 Tous NFC Téléphone Disponible RFID NFC étiquette Autocollants Étiquettes Adhésives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -98,9 +213,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -396,42 +515,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="82.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,30 +572,187 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>3.3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13.38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="H6" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
+      <c r="G7">
+        <v>3.3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="1"/>
+    <row r="13" spans="1:11">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K4"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId5"/>
+    <hyperlink ref="K13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/RFID.xlsx
+++ b/RFID.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -744,7 +744,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K4"/>
+    <hyperlink ref="K4" display="https://fr.rs-online.com/web/p/kits-et-cartes-compatibles-arduino/1360855?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Raspberry_Pi_%26_Arduino_%26_Outils_de_d%C3%A9veloppement_Whoop-_-(FR:Whoop!)+Kits+et+cartes+compatibles+Arduino-_-1360855&amp;matchtype=&amp;aud-827"/>
     <hyperlink ref="K3" r:id="rId2"/>
     <hyperlink ref="K5" r:id="rId3"/>
     <hyperlink ref="K6" r:id="rId4"/>
